--- a/CHEM1101/GravimetricData.xlsx
+++ b/CHEM1101/GravimetricData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Starting mass</t>
   </si>
@@ -44,35 +44,71 @@
     <t>mL</t>
   </si>
   <si>
-    <t>AgNO3 Used</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
     <t>Crucible mass before</t>
   </si>
   <si>
     <t>Crucible mass after</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Partner's Data</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>AgNO3 Used*</t>
+  </si>
+  <si>
+    <t>Uncertainties</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0001g</t>
+    </r>
+  </si>
+  <si>
+    <t>±0.0001g</t>
+  </si>
+  <si>
+    <t>±0.15mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,12 +127,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,174 +504,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>13.1</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>13.2087</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12.988799999999999</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>13.100300000000001</v>
       </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.11119999999999999</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.1084</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <f>C5 * 0.5383 / 35.5 / 0.1  + 0.005</f>
-        <v>2.1861678873239435E-2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1">
+        <v>21.86</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H9">
-        <f>H5 * 0.5383 / 35.5 / 0.1 + 0.005</f>
-        <v>2.143710422535211E-2</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="1">
+        <v>2.1440000000000001E-2</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f>0.0172281  + 0.005</f>
-        <v>2.2228100000000001E-2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <f>17.22  + 5</f>
+        <v>22.22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
         <f>0.01681 + 0.005</f>
         <v>2.181E-2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12">
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30.737500000000001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
         <v>32.681899999999999</v>
       </c>
-      <c r="I12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
         <v>31.122</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11">
         <v>32.906700000000001</v>
       </c>
-      <c r="I13" t="s">
-        <v>3</v>
+      <c r="I13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>